--- a/Public/doc/项目计划_张洁.xlsx
+++ b/Public/doc/项目计划_张洁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>张洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户充值列表展示及搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费列表展示及搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户充值一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费一览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +538,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -670,8 +694,12 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -683,27 +711,63 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42860</v>
+      </c>
+      <c r="G8" s="8">
+        <v>42860</v>
+      </c>
+      <c r="H8" s="8">
+        <v>42860</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42860</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42860</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42860</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42860</v>
+      </c>
+      <c r="I9" s="8">
+        <v>42860</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>

--- a/Public/doc/项目计划_张洁.xlsx
+++ b/Public/doc/项目计划_张洁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,29 @@
   </si>
   <si>
     <t>用户消费一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖人员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼品列表展示及搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖信息列表展示，搜索及导出Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洁</t>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖礼品列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +561,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -770,28 +793,66 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42863</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42863</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42863</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42863</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42863</v>
+      </c>
+      <c r="G11" s="8">
+        <v>42863</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42863</v>
+      </c>
+      <c r="I11" s="8">
+        <v>42863</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
